--- a/classfiers/nano/elm/nearmiss/nano_elm_lin_nearmiss_results.xlsx
+++ b/classfiers/nano/elm/nearmiss/nano_elm_lin_nearmiss_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4736842105263158</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5806451612903226</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7117794486215538</v>
+        <v>0.6371191135734071</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2380952380952381</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.16</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.3434903047091413</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6868421052631579</v>
+        <v>0.7673130193905817</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C5" t="n">
-        <v>0.125</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.6428571428571428</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5054347826086957</v>
+        <v>0.8176470588235294</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3181818181818182</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4516129032258064</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6417112299465241</v>
+        <v>0.4411764705882353</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7188888888888888</v>
+        <v>0.6830808080808082</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2909922533606744</v>
+        <v>0.3032507739938081</v>
       </c>
       <c r="D7" t="n">
-        <v>0.404228548611196</v>
+        <v>0.4132406495165116</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6313757355102085</v>
+        <v>0.601349193416979</v>
       </c>
     </row>
   </sheetData>
